--- a/numberSheet/sheet.xlsx
+++ b/numberSheet/sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="3740" windowWidth="14940" windowHeight="21220" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="10220" yWindow="4140" windowWidth="14940" windowHeight="21220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -138,8 +138,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -219,7 +229,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="77">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -253,6 +263,11 @@
     <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -287,6 +302,11 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -617,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="7.1640625" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0"/>
@@ -1287,7 +1307,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A5" sqref="A5:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="7.1640625" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0"/>
@@ -1956,7 +1976,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A5" sqref="A5:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="7.1640625" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0"/>
@@ -2625,7 +2645,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="7.1640625" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0"/>
@@ -3293,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="7.1640625" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0"/>
